--- a/report/Experimental data record.xlsx
+++ b/report/Experimental data record.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4585,7 +4584,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -4712,7 +4711,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -4801,7 +4800,7 @@
                 <c:order val="24"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AA$1:$AA$3</c15:sqref>
@@ -4841,7 +4840,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -4889,7 +4888,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AA$4:$AA$8</c15:sqref>
@@ -4917,7 +4916,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000018-3D5D-4D1E-8028-AC0AC82A698A}"/>
                   </c:ext>
@@ -4970,7 +4969,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -5100,7 +5099,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -5189,7 +5188,7 @@
                 <c:order val="38"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AO$1:$AO$3</c15:sqref>
@@ -5230,7 +5229,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -5278,7 +5277,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AO$4:$AO$8</c15:sqref>
@@ -5306,7 +5305,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000026-3D5D-4D1E-8028-AC0AC82A698A}"/>
                   </c:ext>
@@ -5361,7 +5360,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -5488,7 +5487,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -5577,7 +5576,7 @@
                 <c:order val="52"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$BC$1:$BC$3</c15:sqref>
@@ -5615,7 +5614,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -5663,7 +5662,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$BC$4:$BC$8</c15:sqref>
@@ -5691,7 +5690,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000034-3D5D-4D1E-8028-AC0AC82A698A}"/>
                   </c:ext>
@@ -5744,7 +5743,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -5871,7 +5870,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4:$B$8</c15:sqref>
@@ -6668,15 +6667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>400215</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>33461</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>151738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6964,7 +6963,7 @@
   <dimension ref="A1:BF8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BD16" sqref="BD16"/>
+      <selection activeCell="BD11" sqref="BD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
